--- a/biology/Zoologie/Conus_lightbourni/Conus_lightbourni.xlsx
+++ b/biology/Zoologie/Conus_lightbourni/Conus_lightbourni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus lightbourni est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,11 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large des Bermudes.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, il y a très peu de connaissances sur cette espèce. Elle vit dans des eaux très profondes et il n'existe que quelques spécimens. Des méthodes de pêche destructrices comme le chalutage sont connues dans la zone d'habitat de cette espèce. Cette espèce figure sur la liste des données insuffisantes[1].
 </t>
         </is>
       </c>
@@ -542,15 +554,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, il y a très peu de connaissances sur cette espèce. Elle vit dans des eaux très profondes et il n'existe que quelques spécimens. Des méthodes de pêche destructrices comme le chalutage sont connues dans la zone d'habitat de cette espèce. Cette espèce figure sur la liste des données insuffisantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_lightbourni</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_lightbourni</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus lightbourni a été décrite pour la première fois en 1986 par le malacologiste américain Edward James Petuch (d)[2],[3].
-Synonymes
-Bermudaconus lightbourni (Petuch, 1986) · non accepté
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus lightbourni a été décrite pour la première fois en 1986 par le malacologiste américain Edward James Petuch (d),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_lightbourni</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_lightbourni</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bermudaconus lightbourni (Petuch, 1986) · non accepté
 Conus (Bermudaconus) lightbourni Petuch, 1986 · appellation alternative
 Conus (Floraconus) lightbourni Petuch, 1986 · non accepté
 Dauciconus lightbourni (Petuch, 1986) · non accepté</t>
